--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -30,12 +30,6 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>Demo B2B CSR</t>
-  </si>
-  <si>
     <t>Verify</t>
   </si>
   <si>
@@ -63,16 +57,7 @@
     <t>Kadirvelan</t>
   </si>
   <si>
-    <t>Thoughtworks</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
     <t>12345678</t>
-  </si>
-  <si>
-    <t>87654321</t>
   </si>
 </sst>
 </file>
@@ -457,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,22 +465,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -506,48 +491,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
